--- a/dh_parameter.xlsx
+++ b/dh_parameter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://siemens-my.sharepoint.com/personal/lennard_keitel_siemens_com/Documents/Lennard Keitel/Hochschule/Master/Robotik/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{94B98B13-009B-4AAA-9D64-EF68018555B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33E74E6E-A5A4-46CE-B67C-59134FDFD667}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{94B98B13-009B-4AAA-9D64-EF68018555B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A35D48D2-0ABF-4A47-8F9A-3EC9B22B0D2D}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{BF3AB3F8-2E53-4527-8CBA-C89CC6E48C7E}"/>
+    <workbookView xWindow="10590" yWindow="13520" windowWidth="14400" windowHeight="8170" xr2:uid="{BF3AB3F8-2E53-4527-8CBA-C89CC6E48C7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>dh-Parameter</t>
   </si>
@@ -69,6 +69,15 @@
   </si>
   <si>
     <t>90°</t>
+  </si>
+  <si>
+    <t>q5</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>0,10854 wie viel weniger?</t>
   </si>
 </sst>
 </file>
@@ -440,20 +449,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C62DC9-242A-4E68-9D77-6CAF4862A72C}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -470,7 +479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -487,7 +496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -504,7 +513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -521,21 +530,38 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6">
-        <v>0.10854</v>
+      <c r="C6" t="s">
+        <v>13</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
